--- a/xlsx/尼亚加拉河_intext.xlsx
+++ b/xlsx/尼亚加拉河_intext.xlsx
@@ -29,7 +29,7 @@
     <t>长度</t>
   </si>
   <si>
-    <t>政策_政策_美國_尼亚加拉河</t>
+    <t>政策_政策_美国_尼亚加拉河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E7%B1%B3</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E8%A1%93%E5%B9%B3%E5%9D%87%E6%95%B8</t>
   </si>
   <si>
-    <t>算術平均數</t>
+    <t>算术平均数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E9%87%8F</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%91%E5%80%AB%E6%B9%96</t>
   </si>
   <si>
-    <t>休倫湖</t>
+    <t>休伦湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E6%B9%96</t>
@@ -191,19 +191,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E8%90%8A%E7%88%BE%E6%B9%96_(%E5%8C%97%E7%BE%8E%E6%B4%B2)</t>
   </si>
   <si>
-    <t>聖克萊爾湖 (北美洲)</t>
+    <t>圣克莱尔湖 (北美洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%AB%E5%A7%86%E7%A7%91%E6%B9%96</t>
   </si>
   <si>
-    <t>錫姆科湖</t>
+    <t>锡姆科湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%B4%8D%E8%B2%9D%E6%88%88%E6%B9%96</t>
   </si>
   <si>
-    <t>溫納貝戈湖</t>
+    <t>温纳贝戈湖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E7%89%B9%E5%BE%8B%E6%B2%B3</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>伊利運河</t>
+    <t>伊利运河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%81%A3</t>
   </si>
   <si>
-    <t>喬治亞灣</t>
+    <t>乔治亚湾</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_George_(Michigan%E2%80%93Ontario)</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E5%80%AB%E6%96%AF%E6%B5%B7%E9%81%93</t>
   </si>
   <si>
-    <t>聖羅倫斯海道</t>
+    <t>圣罗伦斯海道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%9F%BA%E8%AF%BA%E6%B0%B4%E9%81%93</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E8%98%AD%E9%81%8B%E6%B2%B3</t>
   </si>
   <si>
-    <t>威蘭運河</t>
+    <t>威兰运河</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lake_Chicago</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B9%96%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>大湖效應</t>
+    <t>大湖效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A7%E6%B9%96%E5%8C%BA%E5%9F%8E%E5%B8%82%E7%BE%A4</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
